--- a/API/CreateData/test.xlsx
+++ b/API/CreateData/test.xlsx
@@ -1359,7 +1359,7 @@
     <row r="3" ht="60" customFormat="1" customHeight="1" s="2">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XG2024013015185213689874125</t>
+          <t>XG2024020515130011805480375</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1372,8 +1372,10 @@
           <t>86</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>13689874125</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>11805480375</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1382,12 +1384,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-30 15:18:52</t>
+          <t>2024-02-05 15:13:00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
